--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_1_2.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_1_2.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-54027.80602729591</v>
+        <v>-54027.80602729593</v>
       </c>
     </row>
     <row r="7">
@@ -26329,7 +26331,7 @@
         <v>9074.49802118337</v>
       </c>
       <c r="H2" t="n">
-        <v>9074.498021183368</v>
+        <v>9074.49802118337</v>
       </c>
       <c r="I2" t="n">
         <v>9074.49802118337</v>
@@ -26344,7 +26346,7 @@
         <v>9074.49802118337</v>
       </c>
       <c r="M2" t="n">
-        <v>9074.498021183368</v>
+        <v>9074.49802118337</v>
       </c>
       <c r="N2" t="n">
         <v>9074.49802118337</v>
@@ -26418,43 +26420,43 @@
         <v>4537.249010591686</v>
       </c>
       <c r="C4" t="n">
-        <v>4537.249010591685</v>
+        <v>4537.249010591686</v>
       </c>
       <c r="D4" t="n">
         <v>4537.249010591686</v>
       </c>
       <c r="E4" t="n">
-        <v>4537.249010591685</v>
+        <v>4537.249010591686</v>
       </c>
       <c r="F4" t="n">
         <v>4537.249010591686</v>
       </c>
       <c r="G4" t="n">
-        <v>4537.249010591685</v>
+        <v>4537.249010591686</v>
       </c>
       <c r="H4" t="n">
         <v>4537.249010591686</v>
       </c>
       <c r="I4" t="n">
-        <v>4537.249010591685</v>
+        <v>4537.249010591686</v>
       </c>
       <c r="J4" t="n">
         <v>4537.249010591686</v>
       </c>
       <c r="K4" t="n">
-        <v>4537.249010591685</v>
+        <v>4537.249010591686</v>
       </c>
       <c r="L4" t="n">
         <v>4537.249010591686</v>
       </c>
       <c r="M4" t="n">
-        <v>4537.249010591685</v>
+        <v>4537.249010591686</v>
       </c>
       <c r="N4" t="n">
         <v>4537.249010591686</v>
       </c>
       <c r="O4" t="n">
-        <v>4537.249010591685</v>
+        <v>4537.249010591686</v>
       </c>
       <c r="P4" t="n">
         <v>4537.249010591686</v>
@@ -26528,37 +26530,37 @@
         <v>-29090.35098940831</v>
       </c>
       <c r="E6" t="n">
-        <v>4537.249010591685</v>
+        <v>4537.249010591684</v>
       </c>
       <c r="F6" t="n">
         <v>4537.249010591684</v>
       </c>
       <c r="G6" t="n">
-        <v>4537.249010591685</v>
+        <v>4537.249010591684</v>
       </c>
       <c r="H6" t="n">
-        <v>4537.249010591682</v>
+        <v>4537.249010591684</v>
       </c>
       <c r="I6" t="n">
-        <v>4537.249010591685</v>
+        <v>4537.249010591684</v>
       </c>
       <c r="J6" t="n">
         <v>4537.249010591684</v>
       </c>
       <c r="K6" t="n">
-        <v>4537.249010591685</v>
+        <v>4537.249010591684</v>
       </c>
       <c r="L6" t="n">
         <v>4537.249010591684</v>
       </c>
       <c r="M6" t="n">
-        <v>4537.249010591683</v>
+        <v>4537.249010591684</v>
       </c>
       <c r="N6" t="n">
         <v>4537.249010591684</v>
       </c>
       <c r="O6" t="n">
-        <v>4537.249010591685</v>
+        <v>4537.249010591684</v>
       </c>
       <c r="P6" t="n">
         <v>4537.249010591684</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_1_2.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_1_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-54027.80602729593</v>
+        <v>-176627.8266059038</v>
       </c>
     </row>
     <row r="7">
@@ -26319,7 +26319,7 @@
         <v>9074.49802118337</v>
       </c>
       <c r="D2" t="n">
-        <v>9074.49802118337</v>
+        <v>9074.498021183372</v>
       </c>
       <c r="E2" t="n">
         <v>9074.49802118337</v>
@@ -26334,7 +26334,7 @@
         <v>9074.49802118337</v>
       </c>
       <c r="I2" t="n">
-        <v>9074.49802118337</v>
+        <v>9074.498021183372</v>
       </c>
       <c r="J2" t="n">
         <v>9074.49802118337</v>
@@ -26343,7 +26343,7 @@
         <v>9074.49802118337</v>
       </c>
       <c r="L2" t="n">
-        <v>9074.49802118337</v>
+        <v>9074.498021183368</v>
       </c>
       <c r="M2" t="n">
         <v>9074.49802118337</v>
@@ -26355,7 +26355,7 @@
         <v>9074.49802118337</v>
       </c>
       <c r="P2" t="n">
-        <v>9074.49802118337</v>
+        <v>9074.498021183368</v>
       </c>
     </row>
     <row r="3">
@@ -26420,46 +26420,46 @@
         <v>4537.249010591686</v>
       </c>
       <c r="C4" t="n">
-        <v>4537.249010591686</v>
+        <v>4537.249010591685</v>
       </c>
       <c r="D4" t="n">
         <v>4537.249010591686</v>
       </c>
       <c r="E4" t="n">
-        <v>4537.249010591686</v>
+        <v>4537.249010591685</v>
       </c>
       <c r="F4" t="n">
-        <v>4537.249010591686</v>
+        <v>4537.249010591685</v>
       </c>
       <c r="G4" t="n">
         <v>4537.249010591686</v>
       </c>
       <c r="H4" t="n">
-        <v>4537.249010591686</v>
+        <v>4537.249010591685</v>
       </c>
       <c r="I4" t="n">
         <v>4537.249010591686</v>
       </c>
       <c r="J4" t="n">
-        <v>4537.249010591686</v>
+        <v>4537.249010591685</v>
       </c>
       <c r="K4" t="n">
         <v>4537.249010591686</v>
       </c>
       <c r="L4" t="n">
-        <v>4537.249010591686</v>
+        <v>4537.249010591685</v>
       </c>
       <c r="M4" t="n">
         <v>4537.249010591686</v>
       </c>
       <c r="N4" t="n">
-        <v>4537.249010591686</v>
+        <v>4537.249010591685</v>
       </c>
       <c r="O4" t="n">
         <v>4537.249010591686</v>
       </c>
       <c r="P4" t="n">
-        <v>4537.249010591686</v>
+        <v>4537.249010591685</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29090.35098940831</v>
+        <v>-43743.70349117117</v>
       </c>
       <c r="C6" t="n">
-        <v>-29090.35098940831</v>
+        <v>-43743.70349117117</v>
       </c>
       <c r="D6" t="n">
-        <v>-29090.35098940831</v>
+        <v>-43743.70349117117</v>
       </c>
       <c r="E6" t="n">
-        <v>4537.249010591684</v>
+        <v>-10116.10349117118</v>
       </c>
       <c r="F6" t="n">
-        <v>4537.249010591684</v>
+        <v>-10116.10349117118</v>
       </c>
       <c r="G6" t="n">
-        <v>4537.249010591684</v>
+        <v>-10116.10349117118</v>
       </c>
       <c r="H6" t="n">
-        <v>4537.249010591684</v>
+        <v>-10116.10349117118</v>
       </c>
       <c r="I6" t="n">
-        <v>4537.249010591684</v>
+        <v>-10116.10349117117</v>
       </c>
       <c r="J6" t="n">
-        <v>4537.249010591684</v>
+        <v>-10116.10349117118</v>
       </c>
       <c r="K6" t="n">
-        <v>4537.249010591684</v>
+        <v>-10116.10349117118</v>
       </c>
       <c r="L6" t="n">
-        <v>4537.249010591684</v>
+        <v>-10116.10349117118</v>
       </c>
       <c r="M6" t="n">
-        <v>4537.249010591684</v>
+        <v>-10116.10349117118</v>
       </c>
       <c r="N6" t="n">
-        <v>4537.249010591684</v>
+        <v>-10116.10349117118</v>
       </c>
       <c r="O6" t="n">
-        <v>4537.249010591684</v>
+        <v>-10116.10349117118</v>
       </c>
       <c r="P6" t="n">
-        <v>4537.249010591684</v>
+        <v>-10116.10349117118</v>
       </c>
     </row>
   </sheetData>
